--- a/results/mp/tinybert/toy-spam/confidence/126/stop-words-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/126/stop-words-0.15/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="74">
   <si>
     <t>anchor score</t>
   </si>
@@ -52,18 +52,18 @@
     <t>however</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
     <t>broke</t>
   </si>
   <si>
     <t>disappointed</t>
   </si>
   <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>returned</t>
-  </si>
-  <si>
     <t>waste</t>
   </si>
   <si>
@@ -85,78 +85,87 @@
     <t>small</t>
   </si>
   <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
     <t>guess</t>
   </si>
   <si>
+    <t>fell</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
     <t>paint</t>
   </si>
   <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>di</t>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>thought</t>
+  </si>
+  <si>
+    <t>cheap</t>
   </si>
   <si>
     <t>ok</t>
   </si>
   <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>cheap</t>
+    <t>size</t>
   </si>
   <si>
     <t>bit</t>
   </si>
   <si>
-    <t>size</t>
-  </si>
-  <si>
     <t>though</t>
   </si>
   <si>
-    <t>1</t>
+    <t>back</t>
+  </si>
+  <si>
+    <t>money</t>
   </si>
   <si>
     <t>would</t>
   </si>
   <si>
+    <t>need</t>
+  </si>
+  <si>
     <t>item</t>
   </si>
   <si>
     <t>hard</t>
   </si>
   <si>
+    <t>used</t>
+  </si>
+  <si>
     <t>work</t>
   </si>
   <si>
+    <t>could</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>expected</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
     <t>price</t>
   </si>
   <si>
@@ -172,15 +181,9 @@
     <t>little</t>
   </si>
   <si>
-    <t>much</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
-    <t>toy</t>
-  </si>
-  <si>
     <t>one</t>
   </si>
   <si>
@@ -223,7 +226,7 @@
     <t>loved</t>
   </si>
   <si>
-    <t>christmas</t>
+    <t>friends</t>
   </si>
   <si>
     <t>fun</t>
@@ -590,7 +593,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q50"/>
+  <dimension ref="A1:Q51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -598,10 +601,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -659,13 +662,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9565217391304348</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="C3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -677,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K3">
-        <v>0.8214285714285714</v>
+        <v>0.8392857142857143</v>
       </c>
       <c r="L3">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M3">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -701,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -709,13 +712,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9090909090909091</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="C4">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D4">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -727,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K4">
-        <v>0.7846153846153846</v>
+        <v>0.8153846153846154</v>
       </c>
       <c r="L4">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M4">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -751,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -780,16 +783,16 @@
         <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K5">
+        <v>0.6344086021505376</v>
+      </c>
+      <c r="L5">
         <v>59</v>
       </c>
-      <c r="K5">
-        <v>0.6774193548387096</v>
-      </c>
-      <c r="L5">
-        <v>63</v>
-      </c>
       <c r="M5">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -801,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -809,13 +812,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.75</v>
+        <v>0.78125</v>
       </c>
       <c r="C6">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D6">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -827,19 +830,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K6">
-        <v>0.6037735849056604</v>
+        <v>0.5283018867924528</v>
       </c>
       <c r="L6">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M6">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -851,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -859,13 +862,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7378640776699029</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C7">
-        <v>152</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>152</v>
+        <v>28</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -877,19 +880,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K7">
-        <v>0.5</v>
+        <v>0.46875</v>
       </c>
       <c r="L7">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M7">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -901,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -909,13 +912,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7043010752688172</v>
+        <v>0.7323943661971831</v>
       </c>
       <c r="C8">
-        <v>131</v>
+        <v>52</v>
       </c>
       <c r="D8">
-        <v>131</v>
+        <v>52</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -927,19 +930,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K8">
-        <v>0.4057971014492754</v>
+        <v>0.3768115942028986</v>
       </c>
       <c r="L8">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M8">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -951,7 +954,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -959,13 +962,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6901408450704225</v>
+        <v>0.7135922330097088</v>
       </c>
       <c r="C9">
-        <v>49</v>
+        <v>147</v>
       </c>
       <c r="D9">
-        <v>49</v>
+        <v>147</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -977,19 +980,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K9">
-        <v>0.3491803278688524</v>
+        <v>0.3385245901639344</v>
       </c>
       <c r="L9">
-        <v>426</v>
+        <v>413</v>
       </c>
       <c r="M9">
-        <v>426</v>
+        <v>413</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1001,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>794</v>
+        <v>807</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1009,13 +1012,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6842105263157895</v>
+        <v>0.6989247311827957</v>
       </c>
       <c r="C10">
-        <v>26</v>
+        <v>130</v>
       </c>
       <c r="D10">
-        <v>26</v>
+        <v>130</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1027,19 +1030,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K10">
-        <v>0.3012912482065997</v>
+        <v>0.2812051649928264</v>
       </c>
       <c r="L10">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="M10">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1051,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>487</v>
+        <v>501</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1059,13 +1062,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6621621621621622</v>
+        <v>0.6554054054054054</v>
       </c>
       <c r="C11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1077,19 +1080,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K11">
-        <v>0.2614107883817428</v>
+        <v>0.2634854771784232</v>
       </c>
       <c r="L11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1101,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1109,13 +1112,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6134453781512605</v>
+        <v>0.6218487394957983</v>
       </c>
       <c r="C12">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D12">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1127,19 +1130,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K12">
-        <v>0.2333333333333333</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="L12">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M12">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1151,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1180,16 +1183,16 @@
         <v>19</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K13">
-        <v>0.2168674698795181</v>
+        <v>0.1987951807228916</v>
       </c>
       <c r="L13">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M13">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1201,7 +1204,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1230,16 +1233,16 @@
         <v>22</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K14">
-        <v>0.1681957186544343</v>
+        <v>0.1590214067278287</v>
       </c>
       <c r="L14">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="M14">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1251,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1259,38 +1262,38 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5476190476190477</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C15">
+        <v>24</v>
+      </c>
+      <c r="D15">
+        <v>24</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>18</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K15">
+        <v>0.1216931216931217</v>
+      </c>
+      <c r="L15">
         <v>23</v>
       </c>
-      <c r="D15">
+      <c r="M15">
         <v>23</v>
       </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>19</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K15">
-        <v>0.08835341365461848</v>
-      </c>
-      <c r="L15">
-        <v>22</v>
-      </c>
-      <c r="M15">
-        <v>22</v>
-      </c>
       <c r="N15">
         <v>1</v>
       </c>
@@ -1301,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>227</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1330,28 +1333,28 @@
         <v>22</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K16">
-        <v>0.08421052631578947</v>
+        <v>0.07712532865907099</v>
       </c>
       <c r="L16">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="M16">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="N16">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>1044</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1359,13 +1362,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5043478260869565</v>
+        <v>0.4898550724637681</v>
       </c>
       <c r="C17">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D17">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1377,31 +1380,31 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K17">
-        <v>0.03439325113562622</v>
+        <v>0.04220779220779221</v>
       </c>
       <c r="L17">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="M17">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="N17">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17">
-        <v>1488</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1409,13 +1412,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4814814814814815</v>
+        <v>0.4819277108433735</v>
       </c>
       <c r="C18">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D18">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1427,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1435,13 +1438,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4761904761904762</v>
+        <v>0.4409448818897638</v>
       </c>
       <c r="C19">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="D19">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1453,7 +1456,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>33</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1461,13 +1464,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4337349397590362</v>
+        <v>0.4259259259259259</v>
       </c>
       <c r="C20">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D20">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1479,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>47</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1487,13 +1490,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3894736842105263</v>
+        <v>0.4259259259259259</v>
       </c>
       <c r="C21">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="D21">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1505,7 +1508,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>58</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1513,13 +1516,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3858267716535433</v>
+        <v>0.4</v>
       </c>
       <c r="C22">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="D22">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1531,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>78</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1539,13 +1542,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3820224719101123</v>
+        <v>0.3894736842105263</v>
       </c>
       <c r="C23">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D23">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1557,7 +1560,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1565,13 +1568,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3666666666666666</v>
+        <v>0.3820224719101123</v>
       </c>
       <c r="C24">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D24">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1583,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>38</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1591,13 +1594,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.34375</v>
+        <v>0.3650793650793651</v>
       </c>
       <c r="C25">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D25">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1609,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1617,13 +1620,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.328125</v>
+        <v>0.3492063492063492</v>
       </c>
       <c r="C26">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="D26">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1635,7 +1638,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>86</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1643,13 +1646,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.2772277227722773</v>
+        <v>0.3069306930693069</v>
       </c>
       <c r="C27">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D27">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1661,7 +1664,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1669,13 +1672,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2701421800947867</v>
+        <v>0.2890995260663507</v>
       </c>
       <c r="C28">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D28">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1687,7 +1690,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1695,13 +1698,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.2448979591836735</v>
+        <v>0.2734375</v>
       </c>
       <c r="C29">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="D29">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1713,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>74</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1747,13 +1750,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.2307692307692308</v>
+        <v>0.2244897959183673</v>
       </c>
       <c r="C31">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D31">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1765,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>90</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1773,13 +1776,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.2033898305084746</v>
+        <v>0.2136752136752137</v>
       </c>
       <c r="C32">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D32">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1791,7 +1794,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1799,13 +1802,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.1839762611275964</v>
+        <v>0.2</v>
       </c>
       <c r="C33">
-        <v>124</v>
+        <v>28</v>
       </c>
       <c r="D33">
-        <v>124</v>
+        <v>28</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1817,7 +1820,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>550</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1825,13 +1828,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.177536231884058</v>
+        <v>0.1772151898734177</v>
       </c>
       <c r="C34">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D34">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1843,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>227</v>
+        <v>260</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1851,13 +1854,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.16</v>
+        <v>0.172106824925816</v>
       </c>
       <c r="C35">
-        <v>32</v>
+        <v>116</v>
       </c>
       <c r="D35">
-        <v>32</v>
+        <v>116</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1869,7 +1872,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>168</v>
+        <v>558</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1877,13 +1880,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.1582278481012658</v>
+        <v>0.1692307692307692</v>
       </c>
       <c r="C36">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="D36">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1895,7 +1898,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>266</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1903,13 +1906,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.1542056074766355</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C37">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="D37">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1921,7 +1924,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>181</v>
+        <v>230</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1929,13 +1932,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.1528662420382166</v>
+        <v>0.16</v>
       </c>
       <c r="C38">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D38">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1947,7 +1950,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>133</v>
+        <v>168</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1955,13 +1958,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.1518987341772152</v>
+        <v>0.16</v>
       </c>
       <c r="C39">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="D39">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1973,7 +1976,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>268</v>
+        <v>147</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1981,25 +1984,25 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.1371428571428571</v>
+        <v>0.1492063492063492</v>
       </c>
       <c r="C40">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="D40">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40">
-        <v>151</v>
+        <v>268</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2007,13 +2010,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.1343612334801762</v>
+        <v>0.1464968152866242</v>
       </c>
       <c r="C41">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="D41">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2025,7 +2028,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>393</v>
+        <v>134</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2033,25 +2036,25 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.1037463976945245</v>
+        <v>0.1365638766519824</v>
       </c>
       <c r="C42">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="D42">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="E42">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>311</v>
+        <v>392</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2059,13 +2062,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.09274193548387097</v>
+        <v>0.125</v>
       </c>
       <c r="C43">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D43">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2077,7 +2080,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>225</v>
+        <v>168</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2085,13 +2088,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.08614232209737828</v>
+        <v>0.1214953271028037</v>
       </c>
       <c r="C44">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D44">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2103,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>244</v>
+        <v>188</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2111,13 +2114,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.08493150684931507</v>
+        <v>0.117816091954023</v>
       </c>
       <c r="C45">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D45">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2129,7 +2132,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>334</v>
+        <v>307</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2137,25 +2140,25 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.0625</v>
+        <v>0.1169354838709677</v>
       </c>
       <c r="C46">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D46">
         <v>29</v>
       </c>
       <c r="E46">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46">
-        <v>420</v>
+        <v>219</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2163,25 +2166,25 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.0580046403712297</v>
+        <v>0.09737827715355805</v>
       </c>
       <c r="C47">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D47">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E47">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="G47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47">
-        <v>406</v>
+        <v>241</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2189,25 +2192,25 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.05445544554455446</v>
+        <v>0.09041095890410959</v>
       </c>
       <c r="C48">
         <v>33</v>
       </c>
       <c r="D48">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E48">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>573</v>
+        <v>332</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2215,13 +2218,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.03511450381679389</v>
+        <v>0.06904231625835189</v>
       </c>
       <c r="C49">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D49">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2233,7 +2236,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>632</v>
+        <v>418</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2241,25 +2244,51 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.03299492385786802</v>
+        <v>0.0642504118616145</v>
       </c>
       <c r="C50">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="D50">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E50">
-        <v>0.19</v>
+        <v>0.03</v>
       </c>
       <c r="F50">
-        <v>0.8100000000000001</v>
+        <v>0.97</v>
       </c>
       <c r="G50" t="b">
         <v>1</v>
       </c>
       <c r="H50">
-        <v>762</v>
+        <v>568</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51">
+        <v>0.03802281368821293</v>
+      </c>
+      <c r="C51">
+        <v>30</v>
+      </c>
+      <c r="D51">
+        <v>35</v>
+      </c>
+      <c r="E51">
+        <v>0.14</v>
+      </c>
+      <c r="F51">
+        <v>0.86</v>
+      </c>
+      <c r="G51" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>759</v>
       </c>
     </row>
   </sheetData>
